--- a/Assignment 03 - Hashing/Assignment 3 Collision Table.xlsx
+++ b/Assignment 03 - Hashing/Assignment 3 Collision Table.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reidroberts/Desktop/CSU MSCS/Algorithms Analysis and Design/CPSC-6109-Algorithms-Analysis-and-Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reidroberts/Desktop/CSU MSCS/Algorithms Analysis and Design/CPSC-6109-Algorithms-Analysis-and-Design/Assignment 03 - Hashing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC303034-C7CC-8643-AB82-F8424A0F6321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD11860-9878-5048-87D8-FBCBB88CECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{948FD597-9017-F844-82E7-7FB00332B1D4}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{948FD597-9017-F844-82E7-7FB00332B1D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Keys</t>
   </si>
@@ -174,12 +175,30 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>a) separate chaining</t>
+  </si>
+  <si>
+    <t>h = k mod m</t>
+  </si>
+  <si>
+    <t>Entry/Slot</t>
+  </si>
+  <si>
+    <t>7 --&gt; 42 --&gt; 49</t>
+  </si>
+  <si>
+    <t>b) linear probing</t>
+  </si>
+  <si>
+    <t>h(k,i) = h1(k)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,6 +231,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -255,14 +280,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +296,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115051D5-460B-F74B-BF8E-9BACA827E1F6}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,10 +847,10 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -818,10 +865,10 @@
       <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -833,17 +880,17 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="L5" s="7">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -855,25 +902,25 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>2</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -885,27 +932,27 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f>MOD(A6,13)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="5">
-        <f>F7</f>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H12" si="1">F7</f>
         <v>4</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -917,27 +964,27 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>MOD(A2,13)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="5">
-        <f>F8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <v>4</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -949,27 +996,27 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>MOD(A20,13)</f>
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="5">
-        <f>F9</f>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
         <v>5</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -981,27 +1028,27 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>MOD(A26,13)</f>
         <v>11</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="5">
-        <f>F10</f>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
         <v>6</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1013,27 +1060,27 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f>MOD(A18,13)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="5">
-        <f>F11</f>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
         <v>7</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1045,27 +1092,27 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f>MOD(A22,13)</f>
         <v>7</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="5">
-        <f>F12</f>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
         <v>8</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1077,28 +1124,28 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f>MOD(A6,13)</f>
         <v>4</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f>1+MOD(A6,11)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f>MOD(F13+I13*G13,13)</f>
         <v>9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>9</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1110,28 +1157,28 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f>MOD(A20,13)</f>
         <v>5</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>1+MOD(A20,11)</f>
         <v>8</v>
       </c>
-      <c r="H14" s="5">
-        <f t="shared" ref="H14:H18" si="1">MOD(F14+I14*G14,13)</f>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:H18" si="2">MOD(F14+I14*G14,13)</f>
         <v>8</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>10</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1143,28 +1190,28 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f>MOD(A21,13)</f>
         <v>6</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f>1+MOD(A21,11)</f>
         <v>9</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="1"/>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
         <v>11</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1176,28 +1223,28 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f>MOD(A10,13)</f>
         <v>8</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f>1+MOD(A10,11)</f>
         <v>9</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="1"/>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>12</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1209,22 +1256,22 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f>MOD(A16,13)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f>1+MOD(A16,11)</f>
         <v>4</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="1"/>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1236,22 +1283,22 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f>MOD(A15,13)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f>1+MOD(A15,11)</f>
         <v>3</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="1"/>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1346,4 +1393,333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1C1EB0-5FFB-3448-84DE-FF7D4F873F71}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="H5:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <f>MOD(A6,7)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C10" si="0">MOD(A7,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <f>D6+1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <f>H6+1</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D12" si="1">D7+1</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ref="H8:H23" si="2">H7+1</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <f>MOD(A11,7)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I14" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="10">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I17" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="5">
+        <f>H20+1</f>
+        <v>15</v>
+      </c>
+      <c r="I21" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f>6/17</f>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>